--- a/Data/ROY Data/roy_90_91.xlsx
+++ b/Data/ROY Data/roy_90_91.xlsx
@@ -103,7 +103,7 @@
     <t>BOS</t>
   </si>
   <si>
-    <t>2019-20</t>
+    <t>1990-91</t>
   </si>
 </sst>
 </file>
